--- a/upload/example_vcard.xlsx
+++ b/upload/example_vcard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE49B86-E78B-224D-8FF0-91E58A71F84A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7E2169-BC5D-7D44-8F5E-C04F7E49281E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4600" yWindow="3100" windowWidth="27440" windowHeight="16440" xr2:uid="{D95717F2-AF80-1E4F-B2A5-6E42BD7BEBB4}"/>
   </bookViews>
@@ -25,109 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>姓</t>
-  </si>
-  <si>
-    <t>移动电话</t>
-  </si>
-  <si>
-    <t>6.16-新能源-尹文华-广州合成材料研究院有限公司-技术部主任</t>
-  </si>
-  <si>
-    <t>6.16-新能源-李必磊-鑫源-经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-张光辉-郑州大工高新科技有限公司-材料工程师</t>
-  </si>
-  <si>
-    <t>6.16-新能源-杨帆-URBANE Micromobility-COO</t>
-  </si>
-  <si>
-    <t>6.16-新能源-董红伟-欣旺达电动汽车电池有限公司-总经理助理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-杨小王-赛伦（厦门）科技有限公司-工程师</t>
-  </si>
-  <si>
-    <t>6.16-新能源-陈彬-宁波研究院-电源工程师</t>
-  </si>
-  <si>
-    <t>6.16-新能源-王莹-广州希森美克新材料科技有限公司-销售</t>
-  </si>
-  <si>
-    <t>6.16-新能源-赵彦东-中关村领创空间河南科技有限公司-总经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-韩知呈-威腾电气集团股份有限公司-销售经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-赵百慧-中关村科技租赁股份有限公司-经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-金文燚-深圳华印丝印器材有限公司-总经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-周恒-启扬新能源汽车线束有限公司-销售经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-杨生-富泰华-工程师</t>
-  </si>
-  <si>
-    <t>6.16-新能源-练先生-深圳中星机电设备有限公司-总经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-彭元-武汉国康新材料-外贸经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-王端-重庆两江新区鱼复工业园区建设投资有限公司-项目主管</t>
-  </si>
-  <si>
-    <t>6.16-新能源-王小锋-中南大学-副教授</t>
-  </si>
-  <si>
-    <t>6.16-新能源-孙增国-福建富沃进出口有限责任公司-经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-袁小康-深圳科宏健科技有限公司-产品经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-张俊杰-深圳市隆顺金属材料有限公司-销售经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-张磊-浙江盘起汽配有限公司-销售</t>
-  </si>
-  <si>
-    <t>6.16-新能源-彭俊-东莞贝拉五金电子科技有限公司-总经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-Michael-Shanghai DMT-Procurement</t>
-  </si>
-  <si>
-    <t>6.16-新能源-炳财-华腾新能源-业务</t>
-  </si>
-  <si>
-    <t>6.16-新能源-邓文波-广东天机工业智能系统有限公司-业务经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-管帅-山东希凯特汽车科技有限公司-技术部长</t>
-  </si>
-  <si>
-    <t>6.16-新能源-王亮-东莞市元秒光电科技有限公司.-Manager</t>
-  </si>
-  <si>
-    <t>6.16-新能源-陈宇-深圳卓橙科技有限公司-项目经理</t>
-  </si>
-  <si>
-    <t>6.16-新能源-熊正平-四川达志成环保技术有限公司-经理</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>是否为kol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过手机号加微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否成功添加微信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否分享通讯录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,13 +119,54 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,11 +183,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,265 +519,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CB89E7-164C-DC4D-AA3A-262323134440}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>13427589647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>15215114767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
-        <v>18736096337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>18210805890</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>13410453525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>18050634372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>13173891029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
-        <v>18819301452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>18638888011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>18005283788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
-        <v>13021100611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
-        <v>13723475658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="17">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
-        <v>15000683280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B2" s="4">
+        <v>44001</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
-        <v>13243764605</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
-        <v>13691932235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>17302704366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>15215013605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1">
-        <v>13467516329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>13805920221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="1">
-        <v>17881452324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>13630128930</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>13575427522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1">
-        <v>13827100434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1">
-        <v>13918020669</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>13528844331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>18665372311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="1">
-        <v>13655365161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="1">
-        <v>13580704705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>14737426812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1">
-        <v>13980719788</v>
-      </c>
+      <c r="G2" s="3">
+        <v>1231111</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="17">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" ht="17">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="17">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="17">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="17">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" ht="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" ht="17">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="17">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="17">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="17">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="17">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" ht="17">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" ht="17">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" ht="17">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="17">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" ht="17">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="17">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" ht="17">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="17">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
